--- a/src/main/resources/AutoTestData.xlsx
+++ b/src/main/resources/AutoTestData.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdnas/eclipse-workspace/amfam.tdd/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E5B6CA-0898-5F44-8425-E71D23169B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51343C30-3E5B-8D48-B347-CA4B6D06128B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="820" windowWidth="28040" windowHeight="17420" xr2:uid="{44D3749A-5489-F345-AFF7-D88C1EC0D7B4}"/>
+    <workbookView xWindow="1060" yWindow="760" windowWidth="28040" windowHeight="17400" activeTab="1" xr2:uid="{44D3749A-5489-F345-AFF7-D88C1EC0D7B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Expected Title</t>
   </si>
@@ -66,6 +68,27 @@
   </si>
   <si>
     <t>54113</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>some url</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>zip</t>
   </si>
 </sst>
 </file>
@@ -420,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C407D66-07A1-D34C-A577-9E04C79DDA1A}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +452,7 @@
     <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -491,4 +514,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3AD53B-FABB-C240-BC2D-CAF0E032AF7F}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AA64C9-1F85-E94B-9B42-64D839BED4B8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>